--- a/data/excel_files_reduced_clean/test_excel_9_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_9_reduced_clean.xlsx
@@ -1,34 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced_clean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56B8D5C-DC0B-D14B-BB48-A729C33C0B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FinancialAnalysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FinancialAnalysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Average Expenses</t>
+  </si>
+  <si>
+    <t>Profit Status</t>
+  </si>
+  <si>
+    <t>Rounded Profit</t>
+  </si>
+  <si>
+    <t>Summary Name</t>
+  </si>
+  <si>
+    <t>Summary Value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +99,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,206 +401,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Cumulative Profit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Average Expenses</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Profit Status</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Rounded Profit</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Summary Name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Cumulative Profit</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Average Expenses</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>45395</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3200</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>800</v>
       </c>
       <c r="E2">
         <f>B2-C2-D2</f>
-        <v/>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <f>SUM(E2)</f>
-        <v/>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(C2)</f>
-        <v/>
+        <f>AVERAGE(C2:C2)</f>
+        <v>3200</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(E2&gt;0, "Profit", "Loss")</f>
+        <v>Profit</v>
       </c>
       <c r="H2">
-        <f>IF(E2&gt;0, "Profit", "Loss")</f>
-        <v/>
-      </c>
-      <c r="I2">
         <f>ROUND(E2, -2)</f>
-        <v/>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Summary Value</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>SUM(B:B)</f>
+        <v>9800</v>
       </c>
       <c r="L2">
-        <f>SUM(B:B)</f>
-        <v/>
+        <f>SUM(C:C)</f>
+        <v>6200</v>
       </c>
       <c r="M2">
-        <f>SUM(C:C)</f>
-        <v/>
+        <f>SUM(D:D)</f>
+        <v>1650</v>
       </c>
       <c r="N2">
-        <f>SUM(D:D)</f>
-        <v/>
+        <f>SUM(E:E)</f>
+        <v>1950</v>
       </c>
       <c r="O2">
-        <f>SUM(E:E)</f>
-        <v/>
-      </c>
-      <c r="P2">
         <f>SUM(F:F)</f>
-        <v/>
-      </c>
-      <c r="Q2">
-        <f>SUM(G:G)</f>
-        <v/>
+        <v>6200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>45394</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4800</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>850</v>
       </c>
       <c r="E3">
         <f>B3-C3-D3</f>
-        <v/>
+        <v>950</v>
       </c>
       <c r="F3">
-        <f>SUM(E2:E3)</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <f>AVERAGE(C2:C3)</f>
-        <v/>
+        <f>AVERAGE(C3:C3)</f>
+        <v>3000</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(E3&gt;0, "Profit", "Loss")</f>
+        <v>Profit</v>
       </c>
       <c r="H3">
-        <f>IF(E3&gt;0, "Profit", "Loss")</f>
-        <v/>
-      </c>
-      <c r="I3">
         <f>ROUND(E3, -2)</f>
-        <v/>
+        <v>1000</v>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
